--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101132</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940268</v>
+        <v>6734834.566101132</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13808.82386446267</v>
+        <v>834735.0396466412</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13808.82386446267</v>
+        <v>834735.0396466412</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190009012.677751</v>
+        <v>49195331.47002462</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11231.78685735245</v>
+        <v>1229283.97923216</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20934.83649866605</v>
+        <v>2205301.18548992</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30637.88613997964</v>
+        <v>3181318.391747682</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40848.50112936628</v>
+        <v>4124863.864862727</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51059.11611875289</v>
+        <v>5068409.337977772</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60879.21175441126</v>
+        <v>6044128.052827708</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70699.30739006963</v>
+        <v>7019846.767677642</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80519.40302572801</v>
+        <v>7995565.482527577</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90540.09116997414</v>
+        <v>8936929.777881479</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100596.4156778567</v>
+        <v>9885385.709599016</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110652.7401857392</v>
+        <v>10833841.64131656</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120709.0646936217</v>
+        <v>11782297.57303411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130765.3892015043</v>
+        <v>12730753.50475166</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140821.7137093868</v>
+        <v>13679209.43646921</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150878.0382172694</v>
+        <v>14627665.36818673</v>
       </c>
     </row>
   </sheetData>
